--- a/CPE Electives (1 - 3)/01. Lectures Notebook/23. Data Visualization (Mathplotlib)/03.2 Grouped Bar Chart.xlsx
+++ b/CPE Electives (1 - 3)/01. Lectures Notebook/23. Data Visualization (Mathplotlib)/03.2 Grouped Bar Chart.xlsx
@@ -1,20 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\public_files\CPE Electives (1 - 3)\01. Lectures Notebook\23. Data Visualization (Mathplotlib)\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B445FE99-D829-430C-AFCB-C39964AE7758}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7245"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Grouped Bar Chart" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
   <si>
     <t>k</t>
   </si>
@@ -92,12 +105,54 @@
   </si>
   <si>
     <t>x - 0.5 * w</t>
+  </si>
+  <si>
+    <t>n = 5</t>
+  </si>
+  <si>
+    <t>x + (0 - (5 - 1)/ 2) * w</t>
+  </si>
+  <si>
+    <t>x + (1 - ((5 - 1)/ 2) * w</t>
+  </si>
+  <si>
+    <t>x + (2 - ((5 - 1)/2) * w</t>
+  </si>
+  <si>
+    <t>x + (3 - ((5 - 1)/2) * w</t>
+  </si>
+  <si>
+    <t>x + (4 - ((5 - 1)/2) * w</t>
+  </si>
+  <si>
+    <t>x + (0 - 2) * w</t>
+  </si>
+  <si>
+    <t>x - 2 * w</t>
+  </si>
+  <si>
+    <t>x - 1 * w</t>
+  </si>
+  <si>
+    <t>x + (1 - 2) * w</t>
+  </si>
+  <si>
+    <t>x + (2 - 2) * w</t>
+  </si>
+  <si>
+    <t>x + (0) * w</t>
+  </si>
+  <si>
+    <t>x + (1) * w</t>
+  </si>
+  <si>
+    <t>x + (2) * w</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -141,6 +196,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -189,7 +247,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -222,9 +280,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -257,6 +332,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -432,22 +524,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="23.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="2" width="23.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.5546875" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -461,7 +553,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -475,7 +567,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -489,7 +581,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,7 +595,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -517,7 +609,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>0</v>
       </c>
@@ -531,7 +623,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -545,7 +637,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>2</v>
       </c>
@@ -559,7 +651,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>3</v>
       </c>
@@ -571,6 +663,106 @@
       </c>
       <c r="D10" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14">
+        <f>1 - 2</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
